--- a/Time_Management.xlsx
+++ b/Time_Management.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
   <si>
     <t>CRE_12_R6u1</t>
   </si>
@@ -40,12 +40,12 @@
     <t>Andrey Anichkin</t>
   </si>
   <si>
+    <t>100.0%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>100.0%</t>
-  </si>
-  <si>
     <t>Anton Ageev</t>
   </si>
   <si>
@@ -64,7 +64,7 @@
     <t>Алексей Каралаш</t>
   </si>
   <si>
-    <t>75.0%</t>
+    <t>87.5%</t>
   </si>
   <si>
     <t>12.5%</t>
@@ -88,12 +88,6 @@
     <t>Герман Зюзин</t>
   </si>
   <si>
-    <t>88.24%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
     <t>Глеб Сова</t>
   </si>
   <si>
@@ -137,6 +131,15 @@
   </si>
   <si>
     <t>33.33%</t>
+  </si>
+  <si>
+    <t>Unassigned таски</t>
+  </si>
+  <si>
+    <t>Tasks' Id</t>
+  </si>
+  <si>
+    <t>[D] Linux: Не запускается LS при выборе Run a previously installed service, do not install new one</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,22 +508,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -528,25 +531,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -554,25 +557,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -580,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -606,25 +609,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -632,25 +635,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,22 +664,22 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -684,25 +687,25 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -710,25 +713,25 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -736,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -754,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -762,221 +765,221 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -988,111 +991,127 @@
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>147456</v>
       </c>
     </row>
   </sheetData>

--- a/Time_Management.xlsx
+++ b/Time_Management.xlsx
@@ -14,41 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
-  <si>
-    <t>CRE_12_R6u1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="57">
+  <si>
+    <t>CRE_12_R6</t>
   </si>
   <si>
     <t>PR_SDK_1.5.3</t>
   </si>
   <si>
-    <t>CRE_12_R6</t>
+    <t>CR_15_linux</t>
+  </si>
+  <si>
+    <t>CC_12.0.6</t>
   </si>
   <si>
     <t>CR_15_linux_u1</t>
   </si>
   <si>
-    <t>CR_15_linux</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
     <t>Sum</t>
   </si>
   <si>
+    <t>Aleksei Melnikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
     <t>Andrey Anichkin</t>
   </si>
   <si>
-    <t>100.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Anton Ageev</t>
   </si>
   <si>
+    <t>Daniil Krymov</t>
+  </si>
+  <si>
+    <t>Ivan Volkov</t>
+  </si>
+  <si>
     <t>Olga Guseva</t>
   </si>
   <si>
@@ -64,73 +73,109 @@
     <t>Алексей Каралаш</t>
   </si>
   <si>
+    <t>75.0%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>Алексей Мельников</t>
+  </si>
+  <si>
+    <t>Алексей Урывский</t>
+  </si>
+  <si>
+    <t>Андрей Соклаков</t>
+  </si>
+  <si>
+    <t>Валентина Соколова</t>
+  </si>
+  <si>
+    <t>Василий Щукин</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>Герман Зюзин</t>
+  </si>
+  <si>
+    <t>Глеб Сова</t>
+  </si>
+  <si>
+    <t>Дмитрий Жмудь</t>
+  </si>
+  <si>
+    <t>Дмитрий Кротов</t>
+  </si>
+  <si>
+    <t>Дмитрий Маруськин</t>
+  </si>
+  <si>
+    <t>Дмитрий Поповский</t>
+  </si>
+  <si>
+    <t>Дмитрий Чубанов</t>
+  </si>
+  <si>
+    <t>Злата Баяндина</t>
+  </si>
+  <si>
+    <t>Иван Антонов</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>Иван Тихонов</t>
+  </si>
+  <si>
+    <t>Илья Доцин</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>Ирина Леонтович</t>
+  </si>
+  <si>
+    <t>Кирилл Грицаенко</t>
+  </si>
+  <si>
+    <t>Лев Мясников</t>
+  </si>
+  <si>
+    <t>Леонид Сендерович</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>91.67%</t>
+  </si>
+  <si>
+    <t>Сергей Дранков</t>
+  </si>
+  <si>
+    <t>Федор Симашев</t>
+  </si>
+  <si>
     <t>87.5%</t>
   </si>
   <si>
     <t>12.5%</t>
   </si>
   <si>
-    <t>Алексей Мельников</t>
-  </si>
-  <si>
-    <t>Анатолий Смирнов</t>
-  </si>
-  <si>
-    <t>Василий Щукин</t>
-  </si>
-  <si>
-    <t>37.5%</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>Герман Зюзин</t>
-  </si>
-  <si>
-    <t>Глеб Сова</t>
-  </si>
-  <si>
-    <t>Дмитрий Жмудь</t>
-  </si>
-  <si>
-    <t>Дмитрий Кротов</t>
-  </si>
-  <si>
-    <t>Дмитрий Маруськин</t>
-  </si>
-  <si>
-    <t>Дмитрий Поповский</t>
-  </si>
-  <si>
-    <t>Иван Антонов</t>
-  </si>
-  <si>
-    <t>Иван Тихонов</t>
-  </si>
-  <si>
-    <t>Илья Доцин</t>
-  </si>
-  <si>
-    <t>Ирина Леонтович</t>
-  </si>
-  <si>
-    <t>Кирилл Грицаенко</t>
-  </si>
-  <si>
-    <t>60.0%</t>
-  </si>
-  <si>
-    <t>40.0%</t>
-  </si>
-  <si>
-    <t>Лев Мясников</t>
-  </si>
-  <si>
-    <t>Леонид Сендерович</t>
-  </si>
-  <si>
-    <t>33.33%</t>
+    <t>Юлия Якобсон</t>
   </si>
   <si>
     <t>Unassigned таски</t>
@@ -139,7 +184,7 @@
     <t>Tasks' Id</t>
   </si>
   <si>
-    <t>[D] Linux: Не запускается LS при выборе Run a previously installed service, do not install new one</t>
+    <t>Программным путем формировать префикс для ContentCapture под Wine</t>
   </si>
 </sst>
 </file>
@@ -471,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,22 +553,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -531,25 +576,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -563,19 +608,19 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,25 +628,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,25 +654,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -635,25 +680,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,276 +706,276 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -939,179 +984,439 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>8</v>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
-        <v>147456</v>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>147145</v>
       </c>
     </row>
   </sheetData>
